--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationratio-amount.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationratio-amount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -150,10 +150,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -702,21 +698,21 @@
         <v>44</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -727,25 +723,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -796,13 +792,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -814,19 +810,19 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -845,16 +841,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -892,19 +888,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -916,21 +912,21 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -941,7 +937,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -953,16 +949,16 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1012,33 +1008,33 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AK4" t="s" s="2">
+      <c r="AL4" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1049,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1061,16 +1057,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1120,25 +1116,25 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="AK5" t="s" s="2">
+      <c r="AL5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
